--- a/pred_ohlcv/54_21/2019-10-24 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-24 LBA ohlcv.xlsx
@@ -704,7 +704,7 @@
         <v>2232846.291748918</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>2232846.291748918</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>2243916.291748918</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>2243754.291748918</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>2243754.291748918</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>2287866.353048918</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>2230534.353048918</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>2316516.701048918</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -964,7 +964,7 @@
         <v>2643526.419048918</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>2643526.419048918</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>2830657.858048919</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>2111358.74574892</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>2108218.74574892</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>2108218.74574892</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>2108218.74574892</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>2111979.47684892</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>2112240.07684892</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>2110241.20324892</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>2110241.20324892</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>2107417.93764892</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>2107417.93764892</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>2107417.93764892</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>2107417.93764892</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>2063374.08684892</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>2802287.84284892</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>2802287.84284892</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>2802287.84284892</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>2816141.14154892</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>2757180.89334892</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>3130394.87234892</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>3024965.60524892</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>3024965.60524892</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>2993651.06104892</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>3046307.26924892</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>3284956.739048921</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>3234028.20104892</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>3234028.20104892</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>3225206.75024892</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>3225216.75024892</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>3351036.50024892</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>3351036.50024892</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>3348768.04354892</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>3218744.32534892</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>3230284.72884892</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>3243719.86694892</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>3243719.86694892</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>3295698.028512335</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>3365944.872312335</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>3363863.454712335</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>3363863.454712335</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>3363863.454712335</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>3394205.765012335</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>3394205.765012335</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>3394205.765012335</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>3394205.765012335</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>3302640.075112335</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>3302652.075112335</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>3318899.893212335</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>3318899.893212335</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>3318899.893212335</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>3570323.704312335</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>4349421.654112334</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>4196131.593231763</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>4371587.384531762</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>4371587.384531762</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>4371587.384531762</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>4371587.384531762</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>4324948.133931763</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>4324948.133931763</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>4324948.133931763</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>4087409.614131762</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>4082021.720731762</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>4070257.796331762</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>4506965.219031763</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>4310867.638731764</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>4497823.367931764</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>4497823.367931764</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>4539423.367931764</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>4539423.367931764</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>4539292.542231764</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>4539292.542231764</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>4539292.542231764</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>4539292.542231764</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>4539292.542231764</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>4544480.605031764</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>4543481.605031764</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>4543481.605031764</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>4502926.220631764</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>4502926.220631764</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>4481027.360131764</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>4491679.536431764</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>4491679.536431764</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>4585837.766331764</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>4565837.766331764</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>4587433.262031764</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>4576600.122231764</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>4608221.722485252</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>4607228.722485252</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>4607228.722485252</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>4607228.722485252</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>4435983.334085252</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>4444758.177285252</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>4444758.177285252</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>4444758.177285252</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>4444758.177285252</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>4444758.177285252</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>4444758.177285252</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>4444758.177285252</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>4444758.177285252</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>4446349.177285252</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>4582630.605485252</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>4660117.526653068</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>4780462.853053068</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>4780462.853053068</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>4756768.646553067</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>4756768.646553067</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>4756768.646553067</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>4756768.646553067</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>4685881.646553067</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>4771248.854153068</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>4771248.854153068</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>4930951.174053067</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>4930951.174053067</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>4930951.174053067</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>4930951.174053067</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>4930951.174053067</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>4930951.174053067</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>4928701.174053067</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>4938164.550853067</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>4938164.550853067</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>4938164.550853067</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>4937529.915653067</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>4937529.915653067</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>4937529.915653067</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>4937529.915653067</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>4887529.822053066</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>4891639.532953067</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>4891639.532953067</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>4890085.713053067</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>4890085.713053067</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>4890085.713053067</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>4890085.713053067</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>4890085.713053067</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>4876400.641653067</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>4876400.641653067</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>4876400.641653067</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>4888468.635653067</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>4887478.635653067</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>4887478.635653067</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>4887478.635653067</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>4885580.633253068</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>4885580.633253068</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>4885580.633253068</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>4885580.633253068</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>4885580.633253068</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>4861597.633253068</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>4861597.633253068</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>4762424.295353068</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>4770055.532353068</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>4770055.532353068</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>4770055.532353068</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>4770055.532353068</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>4770055.532353068</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>4734688.324753067</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>4734731.324753067</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>4411664.534036788</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>4459312.448536788</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>4461039.801477965</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>4461039.801477965</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>4454113.142377965</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>4392346.685577965</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>4490624.753477965</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>4489732.116477965</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>4839695.230441871</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>2388685.286689667</v>
       </c>
       <c r="H647">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>2383899.899889668</v>
       </c>
       <c r="H649">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>2329124.407489668</v>
       </c>
       <c r="H651">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>2329124.407489668</v>
       </c>
       <c r="H652">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>2329124.407489668</v>
       </c>
       <c r="H653">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>2329813.407489668</v>
       </c>
       <c r="H654">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>2329813.407489668</v>
       </c>
       <c r="H655">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>2322479.499489668</v>
       </c>
       <c r="H657">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>2322479.499489668</v>
       </c>
       <c r="H658">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>2369879.499489668</v>
       </c>
       <c r="H659">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>2312315.606989668</v>
       </c>
       <c r="H739">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>2297288.187089668</v>
       </c>
       <c r="H740">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>2297288.187089668</v>
       </c>
       <c r="H741">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>2297288.187089668</v>
       </c>
       <c r="H742">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>2356425.048589668</v>
       </c>
       <c r="H743">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>2356425.048589668</v>
       </c>
       <c r="H744">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>2250013.392589668</v>
       </c>
       <c r="H745">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>2250013.392589668</v>
       </c>
       <c r="H746">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>2250013.392589668</v>
       </c>
       <c r="H747">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>2261095.206389668</v>
       </c>
       <c r="H748">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>2258804.720189668</v>
       </c>
       <c r="H749">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>2195151.793389668</v>
       </c>
       <c r="H750">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>2309317.495189668</v>
       </c>
       <c r="H751">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>2309317.495189668</v>
       </c>
       <c r="H752">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>2335066.870989668</v>
       </c>
       <c r="H753">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>2335066.870989668</v>
       </c>
       <c r="H754">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>2309219.735889668</v>
       </c>
       <c r="H755">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>2309219.735889668</v>
       </c>
       <c r="H756">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>2113941.996589668</v>
       </c>
       <c r="H757">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>2113941.996589668</v>
       </c>
       <c r="H758">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>2093904.466989668</v>
       </c>
       <c r="H759">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>2093914.466989668</v>
       </c>
       <c r="H760">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>1942435.319189668</v>
       </c>
       <c r="H761">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-24 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-24 LBA ohlcv.xlsx
@@ -704,7 +704,7 @@
         <v>2232846.291748918</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>2232846.291748918</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>2243916.291748918</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>2243754.291748918</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>2243754.291748918</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>2287866.353048918</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>2230534.353048918</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>2316516.701048918</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -964,7 +964,7 @@
         <v>2643526.419048918</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>2643526.419048918</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>2830657.858048919</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>2108218.74574892</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>2111979.47684892</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>2110241.20324892</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>2110241.20324892</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>2107417.93764892</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>2107417.93764892</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>2107417.93764892</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>2107417.93764892</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>2063374.08684892</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>2802287.84284892</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>2802287.84284892</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>2802287.84284892</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>2816141.14154892</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>2757180.89334892</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>2822158.72354892</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>2947019.92864892</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>2947019.92864892</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>2929623.55564892</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>3072099.950623604</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>3094337.28124892</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>3094309.68914892</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>3130394.87234892</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>3188841.68184892</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>3097926.73614892</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>3153982.07924892</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>3024965.60524892</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>3024965.60524892</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>2993651.06104892</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>3046307.26924892</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>3284956.739048921</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>3234028.20104892</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>3234028.20104892</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>3225206.75024892</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>3225216.75024892</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>3351036.50024892</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>3351036.50024892</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>3348768.04354892</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>3218744.32534892</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>3230284.72884892</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>3243719.86694892</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>3243719.86694892</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>3295698.028512335</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>3365944.872312335</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>3363863.454712335</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>3363863.454712335</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>3363863.454712335</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>3394205.765012335</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>3394205.765012335</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>3394205.765012335</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>3394205.765012335</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>3302640.075112335</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>3302652.075112335</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>3318899.893212335</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>3318899.893212335</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>3318899.893212335</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>3570323.704312335</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>4349421.654112334</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>4305130.91822662</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>4208702.88002662</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>3743542.903815</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>4074659.263015</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>4033502.734415</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>4033502.734415</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>4205040.752431762</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>4262138.036831763</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>4196131.593231763</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>4096697.790531763</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>4371587.384531762</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>4371587.384531762</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>4371587.384531762</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>4371587.384531762</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>4324948.133931763</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>4324948.133931763</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>4324948.133931763</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>4000789.316531762</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>4000789.316531762</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>3902529.115431762</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>3902539.115431762</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>3750661.752331762</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>3954383.933831762</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>3954383.933831762</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>4087409.614131762</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>4082021.720731762</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>4070257.796331762</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>4134147.060231762</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>4105385.555831762</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>4109045.855831762</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>4109045.855831762</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>4103897.652331762</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>4105597.652331762</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>4105597.652331762</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>4105597.652331762</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>4062530.718331763</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>4062530.718331763</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>4331912.063931762</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>4423402.906731762</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>4407679.626931762</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>4409864.202431763</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>4428482.899531763</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>4428482.899531763</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>4682291.925631763</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>4506965.219031763</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>4310867.638731764</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>4497823.367931764</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>4497823.367931764</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>4539423.367931764</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>4539423.367931764</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>4539292.542231764</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>4539292.542231764</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>4539292.542231764</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>4539292.542231764</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>4539292.542231764</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>4544480.605031764</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>4543481.605031764</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>4543481.605031764</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>4502926.220631764</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>4502926.220631764</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>4481027.360131764</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>4491679.536431764</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>4491679.536431764</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>4585837.766331764</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>4565837.766331764</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>4587433.262031764</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>4576600.122231764</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>4608221.722485252</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>4607228.722485252</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>4607228.722485252</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>4607228.722485252</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>4435983.334085252</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>4444758.177285252</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>4444758.177285252</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>4444758.177285252</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>4444758.177285252</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>4444758.177285252</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>4444758.177285252</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>4444758.177285252</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>4444758.177285252</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>4446349.177285252</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>4582630.605485252</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>4660117.526653068</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>4780462.853053068</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>4780462.853053068</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>4756768.646553067</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>4756768.646553067</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>4756768.646553067</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>4756768.646553067</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>4685881.646553067</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>4771248.854153068</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>4771248.854153068</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>4930951.174053067</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>4930951.174053067</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>4930951.174053067</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>4930951.174053067</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>4930951.174053067</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>4930951.174053067</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>4928701.174053067</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>4938164.550853067</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>4938164.550853067</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>4938164.550853067</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>4937529.915653067</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>4937529.915653067</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>4937529.915653067</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>4937529.915653067</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>4887529.822053066</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>4891639.532953067</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>4891639.532953067</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>4890085.713053067</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>4890085.713053067</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>4890085.713053067</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>4890085.713053067</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>4890085.713053067</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>4876400.641653067</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>4876400.641653067</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>4876400.641653067</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>4888468.635653067</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>4887478.635653067</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>4887478.635653067</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>4887478.635653067</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>4885580.633253068</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>4885580.633253068</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>4885580.633253068</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>4885580.633253068</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>4885580.633253068</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>2388685.286689667</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>2383899.899889668</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>2329124.407489668</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>2329124.407489668</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>2329124.407489668</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>2329124.407489668</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>2329813.407489668</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>2329813.407489668</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>2322479.499489668</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>2322479.499489668</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>2369879.499489668</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>2297288.187089668</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>2297288.187089668</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>2356425.048589668</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>2356425.048589668</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>2250013.392589668</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>2250013.392589668</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>2261095.206389668</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>2258804.720189668</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>2195151.793389668</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>2309317.495189668</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>2309317.495189668</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>2335066.870989668</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>2335066.870989668</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>2309219.735889668</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>2309219.735889668</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>2113941.996589668</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>2113941.996589668</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>2093904.466989668</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>2093914.466989668</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>1942435.319189668</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
